--- a/medicine/Premiers secours et secourisme/Fédération_des_Secouristes_Français_Croix-Blanche/Fédération_des_Secouristes_Français_Croix-Blanche.xlsx
+++ b/medicine/Premiers secours et secourisme/Fédération_des_Secouristes_Français_Croix-Blanche/Fédération_des_Secouristes_Français_Croix-Blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_des_Secouristes_Fran%C3%A7ais_Croix-Blanche</t>
+          <t>Fédération_des_Secouristes_Français_Croix-Blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fédération des Secouristes Français Croix Blanche, également appelée simplement Croix Blanche, est une association française agréée de sécurité civile.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_des_Secouristes_Fran%C3%A7ais_Croix-Blanche</t>
+          <t>Fédération_des_Secouristes_Français_Croix-Blanche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fédération des Secouristes Français Croix Blanche, anciennement communauté dite des secouristes français et infirmiers volontaires est créée en 1892 par Théophile Funck-Brentano, professeur d'économie politique à l'École libre des sciences politiques.
-Cette société, selon le terme utilisé à l'époque, de type associatif (antérieur à la loi 1901 sur les associations), a été autorisée par le préfet de police le 23 septembre 1892, et est reconnue d'utilité publique le 3 mars 1898[3].
-Elle est considérée comme l'une des premières associations françaises de secourisme moderne[4]. L'association créée se singularise par l'instauration de cours dispensés par des professeurs médecins, permettant d'agir dans l'intérêt du blessé ou du malade dans l'attente de l'intervention d'un médecin[3].
-Elle est reconnue comme établissement d'utilité publique siégeant à Paris par décret du Président de la République, Félix Faure, contresigné par le Ministre de l'intérieur, Louis Barthou, le 3 mars 1898 sous le nom de « Société des Secouristes Français Infirmiers Volontaires »[5],[6]. Cette société s'est illustrée pendant les deux Guerres Mondiales que sont les guerres de 1914 - 1918 et 1939 - 1945. En effet, les infirmiers volontaires se sont rendus au front pour apporter les soins aux combattants, et ont participé à organiser le renseignement des disparus, tant bien militaires que civils. C'est après ces deux conflits qu'apparaissent les premières femmes dans les rangs de l'association. 
-La Fédération prend son nom définitif à travers un décret ministériel le 7 novembre 1972. Elle est agréée pour la formation aux premiers secours ainsi que de Sécurité civile sur les quatre types de mission. En 2019, elle est présente dans 68 départements français de métropole, et également dans les DOM TOM, soit 187 associations locales[2].
+Cette société, selon le terme utilisé à l'époque, de type associatif (antérieur à la loi 1901 sur les associations), a été autorisée par le préfet de police le 23 septembre 1892, et est reconnue d'utilité publique le 3 mars 1898.
+Elle est considérée comme l'une des premières associations françaises de secourisme moderne. L'association créée se singularise par l'instauration de cours dispensés par des professeurs médecins, permettant d'agir dans l'intérêt du blessé ou du malade dans l'attente de l'intervention d'un médecin.
+Elle est reconnue comme établissement d'utilité publique siégeant à Paris par décret du Président de la République, Félix Faure, contresigné par le Ministre de l'intérieur, Louis Barthou, le 3 mars 1898 sous le nom de « Société des Secouristes Français Infirmiers Volontaires »,. Cette société s'est illustrée pendant les deux Guerres Mondiales que sont les guerres de 1914 - 1918 et 1939 - 1945. En effet, les infirmiers volontaires se sont rendus au front pour apporter les soins aux combattants, et ont participé à organiser le renseignement des disparus, tant bien militaires que civils. C'est après ces deux conflits qu'apparaissent les premières femmes dans les rangs de l'association. 
+La Fédération prend son nom définitif à travers un décret ministériel le 7 novembre 1972. Elle est agréée pour la formation aux premiers secours ainsi que de Sécurité civile sur les quatre types de mission. En 2019, elle est présente dans 68 départements français de métropole, et également dans les DOM TOM, soit 187 associations locales.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_des_Secouristes_Fran%C3%A7ais_Croix-Blanche</t>
+          <t>Fédération_des_Secouristes_Français_Croix-Blanche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Écusson</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coupé d'azur et de gueules ; à la croix d'argent. Les couleurs de l'écusson de la fédération rappellent celles de la ville de Paris où elle fut fondée (bleu et rouge) et de la France[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coupé d'azur et de gueules ; à la croix d'argent. Les couleurs de l'écusson de la fédération rappellent celles de la ville de Paris où elle fut fondée (bleu et rouge) et de la France.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_des_Secouristes_Fran%C3%A7ais_Croix-Blanche</t>
+          <t>Fédération_des_Secouristes_Français_Croix-Blanche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
